--- a/docs/14_모형개발보고서/데이터레이아웃BETA.xlsx
+++ b/docs/14_모형개발보고서/데이터레이아웃BETA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\OnAD_project\docs\14_모형개발보고서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331455A6-7CE8-45BB-B6A8-D7A58CF0F4A0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3317CA87-E1DE-44B2-AFF4-1BA6A54E2512}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15732" windowHeight="6384" xr2:uid="{CDE75606-FC7D-4E4F-93D4-A034B07C3F9B}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="61">
   <si>
     <t>컨텐츠명 / 썸네일 이미지</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -270,6 +270,14 @@
     <t>워드클라우드
 빈출단어
 감성 수준 제공, 채팅발생빈도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리에이터 레포트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마케터 레포트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -606,65 +614,8 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -693,29 +644,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -735,17 +665,95 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7299,6 +7307,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="505877664"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -12427,8 +12436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{143AFF64-8D96-47C6-BB8A-AFB09E67E93D}">
   <dimension ref="A1:S42"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="55" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -12438,7 +12447,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
@@ -12448,7 +12459,9 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="1"/>
+      <c r="J1" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
@@ -12548,7 +12561,7 @@
         <v>5</v>
       </c>
       <c r="P5" s="8"/>
-      <c r="Q5" s="36" t="s">
+      <c r="Q5" s="17" t="s">
         <v>45</v>
       </c>
       <c r="R5" s="9"/>
@@ -12723,188 +12736,188 @@
       <c r="A17" s="12">
         <v>1.0104166666666668E-2</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="53"/>
       <c r="E17" s="12">
         <v>0.18987268518518519</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="J17" s="34" t="s">
+      <c r="G17" s="52"/>
+      <c r="H17" s="53"/>
+      <c r="J17" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="K17" s="21" t="s">
+      <c r="K17" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="L17" s="13"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="38" t="s">
+      <c r="L17" s="52"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="O17" s="47"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="47"/>
-      <c r="R17" s="40"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="21"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A18" s="10"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="17"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="55"/>
       <c r="E18" s="10"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="17"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="55"/>
       <c r="J18" s="10"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="47"/>
-      <c r="R18" s="41"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="22"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A19" s="10"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="20"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="58"/>
       <c r="E19" s="10"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="20"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="58"/>
       <c r="J19" s="10"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="47"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32"/>
       <c r="R19" s="10"/>
     </row>
     <row r="20" spans="1:19" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="12">
         <v>2.34375E-2</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="53"/>
       <c r="E20" s="12">
         <v>0.31487268518518519</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="14"/>
-      <c r="J20" s="35" t="s">
+      <c r="G20" s="52"/>
+      <c r="H20" s="53"/>
+      <c r="J20" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="K20" s="22" t="s">
+      <c r="K20" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="L20" s="13"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="38" t="s">
+      <c r="L20" s="52"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="O20" s="21"/>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="58"/>
-      <c r="R20" s="40"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="21"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A21" s="10"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="17"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="55"/>
       <c r="E21" s="10"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="17"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="55"/>
       <c r="J21" s="10"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="41"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="56"/>
-      <c r="R21" s="41"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="22"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A22" s="10"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="20"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="58"/>
       <c r="E22" s="10"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="20"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="58"/>
       <c r="J22" s="10"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="20"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="58"/>
       <c r="N22" s="10"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="46"/>
-      <c r="Q22" s="57"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="41"/>
       <c r="R22" s="10"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A23" s="12">
         <v>6.4641203703703701E-2</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="14"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="53"/>
       <c r="E23" s="12">
         <v>0.3825810185185185</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F23" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="14"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="53"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A24" s="10"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="17"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="55"/>
       <c r="E24" s="12"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="17"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="55"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A25" s="10"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="20"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="58"/>
       <c r="E25" s="10"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="20"/>
-      <c r="P25" s="33" t="s">
+      <c r="F25" s="56"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="58"/>
+      <c r="P25" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="Q25" s="37" t="s">
+      <c r="Q25" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="R25" s="37" t="s">
+      <c r="R25" s="18" t="s">
         <v>53</v>
       </c>
     </row>
@@ -12912,19 +12925,19 @@
       <c r="A26" s="12">
         <v>9.3437500000000007E-2</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="53"/>
       <c r="E26" s="12">
         <v>0.31487268518518519</v>
       </c>
-      <c r="F26" s="22" t="s">
+      <c r="F26" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="G26" s="13"/>
-      <c r="H26" s="14"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="53"/>
       <c r="P26" t="s">
         <v>54</v>
       </c>
@@ -12937,13 +12950,13 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A27" s="10"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="17"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="55"/>
       <c r="E27" s="10"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="17"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="55"/>
       <c r="P27" t="s">
         <v>54</v>
       </c>
@@ -12956,23 +12969,23 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A28" s="12"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="20"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="58"/>
       <c r="E28" s="12"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="20"/>
-      <c r="P28" s="33" t="s">
+      <c r="F28" s="56"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="58"/>
+      <c r="P28" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="Q28" s="37" t="s">
+      <c r="Q28" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="R28" s="37" t="s">
+      <c r="R28" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="S28" s="37"/>
+      <c r="S28" s="18"/>
     </row>
     <row r="29" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="R29">
@@ -12980,13 +12993,13 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A30" s="23"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="33" t="s">
+      <c r="A30" s="42"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="14" t="s">
         <v>39</v>
       </c>
       <c r="I30" t="s">
@@ -12997,76 +13010,76 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A31" s="26"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="27"/>
+      <c r="A31" s="45"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="47"/>
       <c r="G31" t="s">
         <v>40</v>
       </c>
       <c r="H31" t="s">
         <v>33</v>
       </c>
-      <c r="I31" s="31">
+      <c r="I31" s="13">
         <v>2000000</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A32" s="26"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="27"/>
+      <c r="A32" s="45"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="47"/>
       <c r="G32" t="s">
         <v>41</v>
       </c>
       <c r="H32" t="s">
         <v>33</v>
       </c>
-      <c r="I32" s="31">
+      <c r="I32" s="13">
         <v>1200000</v>
       </c>
-      <c r="Q32" s="33" t="s">
+      <c r="Q32" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="R32" s="59">
+      <c r="R32" s="23">
         <v>2200000</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="26"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="27"/>
+      <c r="A33" s="45"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="47"/>
       <c r="G33" t="s">
         <v>42</v>
       </c>
       <c r="H33" t="s">
         <v>33</v>
       </c>
-      <c r="I33" s="31">
+      <c r="I33" s="13">
         <v>800000</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A34" s="26"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="27"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="47"/>
       <c r="G34" t="s">
         <v>43</v>
       </c>
       <c r="H34" t="s">
         <v>33</v>
       </c>
-      <c r="I34" s="31">
+      <c r="I34" s="13">
         <v>600000</v>
       </c>
       <c r="J34" s="1" t="s">
@@ -13082,157 +13095,157 @@
       <c r="R34" s="3"/>
     </row>
     <row r="35" spans="1:18" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="26"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="27"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="49" t="s">
+      <c r="A35" s="45"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="47"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="K35" s="50" t="s">
+      <c r="K35" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="L35" s="51"/>
-      <c r="M35" s="52"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="26"/>
       <c r="N35" s="5"/>
-      <c r="O35" s="49" t="s">
+      <c r="O35" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="P35" s="50" t="s">
+      <c r="P35" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="Q35" s="51"/>
-      <c r="R35" s="52"/>
+      <c r="Q35" s="25"/>
+      <c r="R35" s="26"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A36" s="26"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="27"/>
+      <c r="A36" s="45"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="47"/>
       <c r="G36" t="s">
         <v>37</v>
       </c>
-      <c r="I36" s="31"/>
-      <c r="J36" s="48"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="54"/>
-      <c r="M36" s="55"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="29"/>
       <c r="N36" s="5"/>
-      <c r="O36" s="48"/>
-      <c r="P36" s="53"/>
-      <c r="Q36" s="54"/>
-      <c r="R36" s="55"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="27"/>
+      <c r="Q36" s="28"/>
+      <c r="R36" s="29"/>
     </row>
     <row r="37" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="26"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="27"/>
+      <c r="A37" s="45"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="47"/>
       <c r="G37" t="s">
         <v>34</v>
       </c>
-      <c r="I37" s="31">
+      <c r="I37" s="13">
         <v>600000</v>
       </c>
-      <c r="J37" s="49" t="s">
+      <c r="J37" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="K37" s="50" t="s">
+      <c r="K37" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="L37" s="51"/>
-      <c r="M37" s="52"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="26"/>
       <c r="N37" s="5"/>
-      <c r="O37" s="49" t="s">
+      <c r="O37" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="P37" s="50" t="s">
+      <c r="P37" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="Q37" s="51"/>
-      <c r="R37" s="52"/>
+      <c r="Q37" s="25"/>
+      <c r="R37" s="26"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="28"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="30"/>
-      <c r="H38" s="33" t="s">
+      <c r="A38" s="48"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="50"/>
+      <c r="H38" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="I38" s="31">
+      <c r="I38" s="13">
         <v>4600000</v>
       </c>
-      <c r="J38" s="48"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="54"/>
-      <c r="M38" s="55"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="29"/>
       <c r="N38" s="5"/>
-      <c r="O38" s="48"/>
-      <c r="P38" s="53"/>
-      <c r="Q38" s="54"/>
-      <c r="R38" s="55"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="27"/>
+      <c r="Q38" s="28"/>
+      <c r="R38" s="29"/>
     </row>
     <row r="39" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="J39" s="49" t="s">
+      <c r="J39" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="K39" s="50" t="s">
+      <c r="K39" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="L39" s="51"/>
-      <c r="M39" s="52"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="26"/>
       <c r="N39" s="5"/>
-      <c r="O39" s="49" t="s">
+      <c r="O39" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="P39" s="50" t="s">
+      <c r="P39" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="Q39" s="51"/>
-      <c r="R39" s="52"/>
+      <c r="Q39" s="25"/>
+      <c r="R39" s="26"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A40" s="32" t="s">
+      <c r="A40" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="48"/>
-      <c r="K40" s="53"/>
-      <c r="L40" s="54"/>
-      <c r="M40" s="55"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="29"/>
       <c r="N40" s="5"/>
-      <c r="O40" s="48"/>
-      <c r="P40" s="53"/>
-      <c r="Q40" s="54"/>
-      <c r="R40" s="55"/>
+      <c r="O40" s="31"/>
+      <c r="P40" s="27"/>
+      <c r="Q40" s="28"/>
+      <c r="R40" s="29"/>
     </row>
     <row r="41" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="26"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
+      <c r="A41" s="45"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="46"/>
       <c r="J41" s="7"/>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
@@ -13244,30 +13257,18 @@
       <c r="R41" s="9"/>
     </row>
     <row r="42" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="28"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="30"/>
+      <c r="A42" s="48"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="P35:R36"/>
-    <mergeCell ref="O37:O38"/>
-    <mergeCell ref="P37:R38"/>
-    <mergeCell ref="O39:O40"/>
-    <mergeCell ref="P39:R40"/>
-    <mergeCell ref="O17:Q19"/>
-    <mergeCell ref="O20:Q22"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K35:M36"/>
-    <mergeCell ref="K37:M38"/>
-    <mergeCell ref="K39:M40"/>
-    <mergeCell ref="O35:O36"/>
     <mergeCell ref="A30:F38"/>
     <mergeCell ref="A40:I42"/>
     <mergeCell ref="K17:M19"/>
@@ -13282,12 +13283,25 @@
     <mergeCell ref="F20:H22"/>
     <mergeCell ref="F23:H25"/>
     <mergeCell ref="F26:H28"/>
+    <mergeCell ref="O17:Q19"/>
+    <mergeCell ref="O20:Q22"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K35:M36"/>
+    <mergeCell ref="K37:M38"/>
+    <mergeCell ref="K39:M40"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="P35:R36"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="P37:R38"/>
+    <mergeCell ref="O39:O40"/>
+    <mergeCell ref="P39:R40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;LREPORT - CREATOR</oddHeader>
+    <oddHeader xml:space="preserve">&amp;LREPORT
+</oddHeader>
     <oddFooter>&amp;C&amp;15On Ad</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
@@ -13355,7 +13369,7 @@
       </c>
       <c r="C4">
         <f ca="1">INT(RAND()*300)+100</f>
-        <v>327</v>
+        <v>354</v>
       </c>
       <c r="F4" s="10">
         <v>1</v>
@@ -13365,11 +13379,11 @@
       </c>
       <c r="H4" s="10">
         <f ca="1">INT(RAND()*300)+100</f>
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="I4" s="10">
         <f ca="1">INT(RAND()*100)+10</f>
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="J4" s="10">
         <v>0</v>
@@ -13402,7 +13416,7 @@
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C68" ca="1" si="0">INT(RAND()*10)+1</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F5" s="10">
         <v>2</v>
@@ -13411,12 +13425,12 @@
         <v>4</v>
       </c>
       <c r="H5" s="10">
-        <f t="shared" ref="H5:H68" ca="1" si="1">INT(RAND()*300)+100</f>
-        <v>157</v>
+        <f t="shared" ref="H5:H33" ca="1" si="1">INT(RAND()*300)+100</f>
+        <v>374</v>
       </c>
       <c r="I5" s="10">
         <f t="shared" ref="I5:I68" ca="1" si="2">INT(RAND()*100)+10</f>
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="J5" s="10"/>
       <c r="M5">
@@ -13444,7 +13458,7 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F6" s="10">
         <v>3</v>
@@ -13454,11 +13468,11 @@
       </c>
       <c r="H6" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>348</v>
+        <v>238</v>
       </c>
       <c r="I6" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="J6" s="10"/>
       <c r="M6">
@@ -13486,7 +13500,7 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F7" s="10">
         <v>4</v>
@@ -13496,11 +13510,11 @@
       </c>
       <c r="H7" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>388</v>
+        <v>196</v>
       </c>
       <c r="I7" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J7" s="10"/>
       <c r="M7">
@@ -13528,7 +13542,7 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F8" s="10">
         <v>5</v>
@@ -13538,11 +13552,11 @@
       </c>
       <c r="H8" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>300</v>
+        <v>219</v>
       </c>
       <c r="I8" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="J8" s="10"/>
       <c r="M8">
@@ -13570,7 +13584,7 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F9" s="10">
         <v>6</v>
@@ -13580,11 +13594,11 @@
       </c>
       <c r="H9" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>340</v>
+        <v>387</v>
       </c>
       <c r="I9" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J9" s="10"/>
       <c r="M9">
@@ -13612,7 +13626,7 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F10" s="10">
         <v>7</v>
@@ -13622,11 +13636,11 @@
       </c>
       <c r="H10" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>256</v>
+        <v>315</v>
       </c>
       <c r="I10" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="J10" s="10"/>
       <c r="M10">
@@ -13654,7 +13668,7 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F11" s="10">
         <v>8</v>
@@ -13664,11 +13678,11 @@
       </c>
       <c r="H11" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>371</v>
+        <v>108</v>
       </c>
       <c r="I11" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="J11" s="10"/>
       <c r="M11">
@@ -13706,11 +13720,11 @@
       </c>
       <c r="H12" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>203</v>
+        <v>385</v>
       </c>
       <c r="I12" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="J12" s="10"/>
       <c r="M12">
@@ -13748,11 +13762,11 @@
       </c>
       <c r="H13" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="I13" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="J13" s="10"/>
       <c r="M13">
@@ -13789,11 +13803,11 @@
       </c>
       <c r="H14" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>234</v>
+        <v>394</v>
       </c>
       <c r="I14" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="J14" s="10">
         <f>IF(G14&gt;15,100,0)</f>
@@ -13836,11 +13850,11 @@
       </c>
       <c r="H15" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>154</v>
+        <v>345</v>
       </c>
       <c r="I15" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="J15" s="10">
         <f>IF(G15&gt;15,100,0)</f>
@@ -13883,11 +13897,11 @@
       </c>
       <c r="H16" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>373</v>
+        <v>339</v>
       </c>
       <c r="I16" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="J16" s="10">
         <f>IF(G16&gt;15,100,0)</f>
@@ -13921,7 +13935,7 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F17" s="10">
         <v>14</v>
@@ -13931,11 +13945,11 @@
       </c>
       <c r="H17" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>282</v>
+        <v>351</v>
       </c>
       <c r="I17" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J17" s="10"/>
       <c r="M17">
@@ -13963,7 +13977,7 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F18" s="10">
         <v>15</v>
@@ -13973,11 +13987,11 @@
       </c>
       <c r="H18" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>243</v>
+        <v>194</v>
       </c>
       <c r="I18" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="J18" s="10"/>
       <c r="M18">
@@ -14005,7 +14019,7 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F19" s="10">
         <v>16</v>
@@ -14015,11 +14029,11 @@
       </c>
       <c r="H19" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>365</v>
+        <v>112</v>
       </c>
       <c r="I19" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="J19" s="10"/>
       <c r="M19">
@@ -14047,7 +14061,7 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F20" s="10">
         <v>17</v>
@@ -14057,11 +14071,11 @@
       </c>
       <c r="H20" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="I20" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="J20" s="10"/>
       <c r="M20">
@@ -14089,7 +14103,7 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F21" s="10">
         <v>18</v>
@@ -14099,11 +14113,11 @@
       </c>
       <c r="H21" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>144</v>
+        <v>288</v>
       </c>
       <c r="I21" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="J21" s="10"/>
       <c r="M21">
@@ -14131,7 +14145,7 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F22" s="10">
         <v>19</v>
@@ -14141,11 +14155,11 @@
       </c>
       <c r="H22" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>298</v>
+        <v>373</v>
       </c>
       <c r="I22" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="J22" s="10"/>
       <c r="M22">
@@ -14173,7 +14187,7 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F23" s="10">
         <v>20</v>
@@ -14183,11 +14197,11 @@
       </c>
       <c r="H23" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>367</v>
+        <v>129</v>
       </c>
       <c r="I23" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J23" s="10"/>
       <c r="M23">
@@ -14215,7 +14229,7 @@
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F24" s="10">
         <v>21</v>
@@ -14225,11 +14239,11 @@
       </c>
       <c r="H24" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>331</v>
+        <v>260</v>
       </c>
       <c r="I24" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="J24" s="10"/>
       <c r="M24">
@@ -14248,7 +14262,7 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F25" s="10">
         <v>22</v>
@@ -14258,11 +14272,11 @@
       </c>
       <c r="H25" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>114</v>
+        <v>344</v>
       </c>
       <c r="I25" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="J25" s="10"/>
       <c r="M25">
@@ -14281,7 +14295,7 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F26" s="10">
         <v>23</v>
@@ -14291,11 +14305,11 @@
       </c>
       <c r="H26" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>385</v>
+        <v>141</v>
       </c>
       <c r="I26" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="J26" s="10"/>
       <c r="M26">
@@ -14314,7 +14328,7 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F27" s="10">
         <v>24</v>
@@ -14324,11 +14338,11 @@
       </c>
       <c r="H27" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>188</v>
+        <v>351</v>
       </c>
       <c r="I27" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="J27" s="10"/>
       <c r="M27">
@@ -14347,7 +14361,7 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F28" s="10">
         <v>25</v>
@@ -14357,11 +14371,11 @@
       </c>
       <c r="H28" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>231</v>
+        <v>375</v>
       </c>
       <c r="I28" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="J28" s="10"/>
       <c r="M28">
@@ -14380,7 +14394,7 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F29" s="10">
         <v>26</v>
@@ -14390,11 +14404,11 @@
       </c>
       <c r="H29" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>207</v>
+        <v>117</v>
       </c>
       <c r="I29" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J29" s="10"/>
       <c r="M29">
@@ -14413,7 +14427,7 @@
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F30" s="10">
         <v>27</v>
@@ -14423,11 +14437,11 @@
       </c>
       <c r="H30" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>174</v>
+        <v>338</v>
       </c>
       <c r="I30" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="J30" s="10"/>
       <c r="M30">
@@ -14446,7 +14460,7 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F31" s="10">
         <v>28</v>
@@ -14456,11 +14470,11 @@
       </c>
       <c r="H31" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>164</v>
+        <v>265</v>
       </c>
       <c r="I31" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="J31" s="10"/>
       <c r="M31">
@@ -14479,7 +14493,7 @@
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F32" s="10">
         <v>29</v>
@@ -14489,11 +14503,11 @@
       </c>
       <c r="H32" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>282</v>
+        <v>130</v>
       </c>
       <c r="I32" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="J32" s="10"/>
       <c r="M32">
@@ -14512,7 +14526,7 @@
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F33" s="10">
         <v>30</v>
@@ -14522,11 +14536,11 @@
       </c>
       <c r="H33" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="I33" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="J33" s="10"/>
       <c r="M33">
@@ -14554,11 +14568,11 @@
       </c>
       <c r="H34" s="10">
         <f ca="1">INT(RAND()*500)+200</f>
-        <v>630</v>
+        <v>401</v>
       </c>
       <c r="I34" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="J34" s="10">
         <f>IF(G34&gt;15,100,0)</f>
@@ -14592,11 +14606,11 @@
       </c>
       <c r="H35" s="10">
         <f ca="1">INT(RAND()*500)+200</f>
-        <v>659</v>
+        <v>362</v>
       </c>
       <c r="I35" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J35" s="10">
         <f>IF(G35&gt;15,100,0)</f>
@@ -14629,12 +14643,12 @@
         <v>15</v>
       </c>
       <c r="H36" s="10">
-        <f t="shared" ref="H36:H53" ca="1" si="3">INT(RAND()*500)+200</f>
-        <v>682</v>
+        <f t="shared" ref="H36:H52" ca="1" si="3">INT(RAND()*500)+200</f>
+        <v>387</v>
       </c>
       <c r="I36" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="J36" s="10"/>
       <c r="M36">
@@ -14662,11 +14676,11 @@
       </c>
       <c r="H37" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>350</v>
+        <v>553</v>
       </c>
       <c r="I37" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="J37" s="10"/>
       <c r="M37">
@@ -14685,7 +14699,7 @@
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F38" s="10">
         <v>35</v>
@@ -14695,11 +14709,11 @@
       </c>
       <c r="H38" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>513</v>
+        <v>542</v>
       </c>
       <c r="I38" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="J38" s="10"/>
       <c r="M38">
@@ -14718,7 +14732,7 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F39" s="10">
         <v>36</v>
@@ -14728,11 +14742,11 @@
       </c>
       <c r="H39" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>386</v>
+        <v>324</v>
       </c>
       <c r="I39" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="J39" s="10"/>
       <c r="M39">
@@ -14751,7 +14765,7 @@
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F40" s="10">
         <v>37</v>
@@ -14761,11 +14775,11 @@
       </c>
       <c r="H40" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>378</v>
+        <v>593</v>
       </c>
       <c r="I40" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="J40" s="10"/>
       <c r="M40">
@@ -14784,7 +14798,7 @@
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F41" s="10">
         <v>38</v>
@@ -14794,11 +14808,11 @@
       </c>
       <c r="H41" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>342</v>
+        <v>645</v>
       </c>
       <c r="I41" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="J41" s="10"/>
       <c r="M41">
@@ -14817,7 +14831,7 @@
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F42" s="10">
         <v>39</v>
@@ -14827,11 +14841,11 @@
       </c>
       <c r="H42" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>303</v>
+        <v>431</v>
       </c>
       <c r="I42" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="J42" s="10"/>
       <c r="M42">
@@ -14850,7 +14864,7 @@
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F43" s="10">
         <v>40</v>
@@ -14860,11 +14874,11 @@
       </c>
       <c r="H43" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>211</v>
+        <v>265</v>
       </c>
       <c r="I43" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="J43" s="10"/>
       <c r="M43">
@@ -14883,7 +14897,7 @@
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F44" s="10">
         <v>41</v>
@@ -14893,11 +14907,11 @@
       </c>
       <c r="H44" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>215</v>
+        <v>404</v>
       </c>
       <c r="I44" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="J44" s="10"/>
       <c r="M44">
@@ -14916,7 +14930,7 @@
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F45" s="10">
         <v>42</v>
@@ -14926,11 +14940,11 @@
       </c>
       <c r="H45" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>413</v>
+        <v>686</v>
       </c>
       <c r="I45" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="J45" s="10"/>
       <c r="M45">
@@ -14949,7 +14963,7 @@
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F46" s="10">
         <v>43</v>
@@ -14959,11 +14973,11 @@
       </c>
       <c r="H46" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>332</v>
+        <v>226</v>
       </c>
       <c r="I46" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="J46" s="10"/>
       <c r="M46">
@@ -14982,7 +14996,7 @@
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F47" s="10">
         <v>44</v>
@@ -14992,11 +15006,11 @@
       </c>
       <c r="H47" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>377</v>
+        <v>244</v>
       </c>
       <c r="I47" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="J47" s="10"/>
       <c r="M47">
@@ -15025,11 +15039,11 @@
       </c>
       <c r="H48" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>464</v>
+        <v>339</v>
       </c>
       <c r="I48" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="J48" s="10"/>
       <c r="M48">
@@ -15057,11 +15071,11 @@
       </c>
       <c r="H49" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>493</v>
+        <v>360</v>
       </c>
       <c r="I49" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="J49" s="10"/>
       <c r="M49">
@@ -15089,11 +15103,11 @@
       </c>
       <c r="H50" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>609</v>
+        <v>336</v>
       </c>
       <c r="I50" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="J50" s="10">
         <f>IF(G50&gt;15,100,0)</f>
@@ -15127,11 +15141,11 @@
       </c>
       <c r="H51" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>267</v>
+        <v>220</v>
       </c>
       <c r="I51" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="J51" s="10">
         <f>IF(G51&gt;15,100,0)</f>
@@ -15165,11 +15179,11 @@
       </c>
       <c r="H52" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>327</v>
+        <v>393</v>
       </c>
       <c r="I52" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="J52" s="10">
         <f>IF(G52&gt;15,100,0)</f>
@@ -15194,7 +15208,7 @@
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F53" s="10">
         <v>50</v>
@@ -15204,11 +15218,11 @@
       </c>
       <c r="H53" s="10">
         <f ca="1">INT(RAND()*600)+200</f>
-        <v>642</v>
+        <v>258</v>
       </c>
       <c r="I53" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="J53" s="10"/>
       <c r="M53">
@@ -15227,7 +15241,7 @@
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F54" s="10">
         <v>51</v>
@@ -15237,11 +15251,11 @@
       </c>
       <c r="H54" s="10">
         <f t="shared" ref="H54:H73" ca="1" si="4">INT(RAND()*600)+200</f>
-        <v>780</v>
+        <v>481</v>
       </c>
       <c r="I54" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="J54" s="10"/>
       <c r="M54">
@@ -15260,7 +15274,7 @@
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F55" s="10">
         <v>52</v>
@@ -15270,11 +15284,11 @@
       </c>
       <c r="H55" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>458</v>
+        <v>661</v>
       </c>
       <c r="I55" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="J55" s="10"/>
       <c r="M55">
@@ -15303,11 +15317,11 @@
       </c>
       <c r="H56" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>293</v>
+        <v>770</v>
       </c>
       <c r="I56" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="J56" s="10"/>
       <c r="M56">
@@ -15326,7 +15340,7 @@
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F57" s="10">
         <v>54</v>
@@ -15336,11 +15350,11 @@
       </c>
       <c r="H57" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>472</v>
+        <v>279</v>
       </c>
       <c r="I57" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="J57" s="10"/>
       <c r="M57">
@@ -15359,7 +15373,7 @@
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F58" s="10">
         <v>55</v>
@@ -15369,11 +15383,11 @@
       </c>
       <c r="H58" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>202</v>
+        <v>635</v>
       </c>
       <c r="I58" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="J58" s="10"/>
       <c r="M58">
@@ -15392,7 +15406,7 @@
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F59" s="10">
         <v>56</v>
@@ -15402,11 +15416,11 @@
       </c>
       <c r="H59" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>338</v>
+        <v>499</v>
       </c>
       <c r="I59" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="J59" s="10"/>
       <c r="M59">
@@ -15435,11 +15449,11 @@
       </c>
       <c r="H60" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>331</v>
+        <v>692</v>
       </c>
       <c r="I60" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="J60" s="10"/>
       <c r="M60">
@@ -15458,7 +15472,7 @@
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F61" s="10">
         <v>58</v>
@@ -15468,11 +15482,11 @@
       </c>
       <c r="H61" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>220</v>
+        <v>501</v>
       </c>
       <c r="I61" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J61" s="10"/>
       <c r="M61">
@@ -15491,7 +15505,7 @@
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F62" s="10">
         <v>59</v>
@@ -15501,11 +15515,11 @@
       </c>
       <c r="H62" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>226</v>
+        <v>617</v>
       </c>
       <c r="I62" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="J62" s="10"/>
       <c r="M62">
@@ -15533,11 +15547,11 @@
       </c>
       <c r="H63" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>691</v>
+        <v>797</v>
       </c>
       <c r="I63" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="J63" s="10">
         <f>IF(G63&gt;15,100,0)</f>
@@ -15571,11 +15585,11 @@
       </c>
       <c r="H64" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>509</v>
+        <v>583</v>
       </c>
       <c r="I64" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="J64" s="10">
         <f>IF(G64&gt;15,100,0)</f>
@@ -15609,11 +15623,11 @@
       </c>
       <c r="H65" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>731</v>
+        <v>582</v>
       </c>
       <c r="I65" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="J65" s="10">
         <f>IF(G65&gt;15,100,0)</f>
@@ -15647,11 +15661,11 @@
       </c>
       <c r="H66" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>214</v>
+        <v>286</v>
       </c>
       <c r="I66" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="J66" s="10">
         <f>IF(G66&gt;15,100,0)</f>
@@ -15676,7 +15690,7 @@
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F67" s="10">
         <v>64</v>
@@ -15686,11 +15700,11 @@
       </c>
       <c r="H67" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>759</v>
+        <v>325</v>
       </c>
       <c r="I67" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="J67" s="10"/>
       <c r="M67">
@@ -15709,7 +15723,7 @@
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F68" s="10">
         <v>65</v>
@@ -15719,11 +15733,11 @@
       </c>
       <c r="H68" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>402</v>
+        <v>234</v>
       </c>
       <c r="I68" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="J68" s="10"/>
       <c r="M68">
@@ -15742,7 +15756,7 @@
       </c>
       <c r="C69">
         <f t="shared" ref="C69:C103" ca="1" si="5">INT(RAND()*10)+1</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F69" s="10">
         <v>66</v>
@@ -15752,11 +15766,11 @@
       </c>
       <c r="H69" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>555</v>
+        <v>720</v>
       </c>
       <c r="I69" s="10">
         <f t="shared" ref="I69:I103" ca="1" si="6">INT(RAND()*100)+10</f>
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="J69" s="10"/>
       <c r="M69">
@@ -15775,7 +15789,7 @@
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F70" s="10">
         <v>67</v>
@@ -15785,11 +15799,11 @@
       </c>
       <c r="H70" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>628</v>
+        <v>413</v>
       </c>
       <c r="I70" s="10">
         <f t="shared" ca="1" si="6"/>
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="J70" s="10"/>
       <c r="M70">
@@ -15808,7 +15822,7 @@
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F71" s="10">
         <v>68</v>
@@ -15818,11 +15832,11 @@
       </c>
       <c r="H71" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>698</v>
+        <v>262</v>
       </c>
       <c r="I71" s="10">
         <f t="shared" ca="1" si="6"/>
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="J71" s="10"/>
       <c r="M71">
@@ -15841,7 +15855,7 @@
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F72" s="10">
         <v>69</v>
@@ -15851,11 +15865,11 @@
       </c>
       <c r="H72" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="I72" s="10">
         <f t="shared" ca="1" si="6"/>
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="J72" s="10"/>
       <c r="M72">
@@ -15874,7 +15888,7 @@
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F73" s="10">
         <v>70</v>
@@ -15884,11 +15898,11 @@
       </c>
       <c r="H73" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>223</v>
+        <v>571</v>
       </c>
       <c r="I73" s="10">
         <f t="shared" ca="1" si="6"/>
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J73" s="10"/>
       <c r="M73">
@@ -15907,7 +15921,7 @@
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F74" s="10">
         <v>71</v>
@@ -15917,11 +15931,11 @@
       </c>
       <c r="H74" s="10">
         <f ca="1">INT(RAND()*500)+100</f>
-        <v>509</v>
+        <v>528</v>
       </c>
       <c r="I74" s="10">
         <f t="shared" ca="1" si="6"/>
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="J74" s="10"/>
       <c r="M74">
@@ -15940,7 +15954,7 @@
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F75" s="10">
         <v>72</v>
@@ -15949,12 +15963,12 @@
         <v>7</v>
       </c>
       <c r="H75" s="10">
-        <f t="shared" ref="H69:H103" ca="1" si="7">INT(RAND()*300)+100</f>
-        <v>319</v>
+        <f t="shared" ref="H75:H103" ca="1" si="7">INT(RAND()*300)+100</f>
+        <v>294</v>
       </c>
       <c r="I75" s="10">
         <f t="shared" ca="1" si="6"/>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J75" s="10"/>
       <c r="M75">
@@ -15973,7 +15987,7 @@
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F76" s="10">
         <v>73</v>
@@ -15983,11 +15997,11 @@
       </c>
       <c r="H76" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>228</v>
+        <v>314</v>
       </c>
       <c r="I76" s="10">
         <f t="shared" ca="1" si="6"/>
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="J76" s="10"/>
       <c r="M76">
@@ -16016,11 +16030,11 @@
       </c>
       <c r="H77" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>290</v>
+        <v>101</v>
       </c>
       <c r="I77" s="10">
         <f t="shared" ca="1" si="6"/>
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="J77" s="10"/>
       <c r="M77">
@@ -16039,7 +16053,7 @@
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F78" s="10">
         <v>75</v>
@@ -16049,11 +16063,11 @@
       </c>
       <c r="H78" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>377</v>
+        <v>138</v>
       </c>
       <c r="I78" s="10">
         <f t="shared" ca="1" si="6"/>
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="J78" s="10"/>
       <c r="M78">
@@ -16082,11 +16096,11 @@
       </c>
       <c r="H79" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>149</v>
+        <v>389</v>
       </c>
       <c r="I79" s="10">
         <f t="shared" ca="1" si="6"/>
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="J79" s="10"/>
       <c r="M79">
@@ -16105,7 +16119,7 @@
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F80" s="10">
         <v>77</v>
@@ -16115,11 +16129,11 @@
       </c>
       <c r="H80" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>178</v>
+        <v>120</v>
       </c>
       <c r="I80" s="10">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="J80" s="10"/>
       <c r="M80">
@@ -16147,11 +16161,11 @@
       </c>
       <c r="H81" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="I81" s="10">
         <f t="shared" ca="1" si="6"/>
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J81" s="10">
         <f>IF(G81&gt;15,100,0)</f>
@@ -16185,11 +16199,11 @@
       </c>
       <c r="H82" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>387</v>
+        <v>165</v>
       </c>
       <c r="I82" s="10">
         <f t="shared" ca="1" si="6"/>
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="J82" s="10">
         <f>IF(G82&gt;15,100,0)</f>
@@ -16223,11 +16237,11 @@
       </c>
       <c r="H83" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>374</v>
+        <v>235</v>
       </c>
       <c r="I83" s="10">
         <f t="shared" ca="1" si="6"/>
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="J83" s="10">
         <f>IF(G83&gt;15,100,0)</f>
@@ -16252,7 +16266,7 @@
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F84" s="10">
         <v>81</v>
@@ -16262,11 +16276,11 @@
       </c>
       <c r="H84" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>259</v>
+        <v>205</v>
       </c>
       <c r="I84" s="10">
         <f t="shared" ca="1" si="6"/>
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="J84" s="10"/>
       <c r="M84">
@@ -16285,7 +16299,7 @@
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F85" s="10">
         <v>82</v>
@@ -16295,11 +16309,11 @@
       </c>
       <c r="H85" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>149</v>
+        <v>249</v>
       </c>
       <c r="I85" s="10">
         <f t="shared" ca="1" si="6"/>
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="J85" s="10"/>
       <c r="M85">
@@ -16318,7 +16332,7 @@
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F86" s="10">
         <v>83</v>
@@ -16328,11 +16342,11 @@
       </c>
       <c r="H86" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>255</v>
+        <v>364</v>
       </c>
       <c r="I86" s="10">
         <f t="shared" ca="1" si="6"/>
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="J86" s="10"/>
       <c r="M86">
@@ -16351,7 +16365,7 @@
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F87" s="10">
         <v>84</v>
@@ -16361,11 +16375,11 @@
       </c>
       <c r="H87" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="I87" s="10">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="J87" s="10"/>
       <c r="M87">
@@ -16384,7 +16398,7 @@
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F88" s="10">
         <v>85</v>
@@ -16394,11 +16408,11 @@
       </c>
       <c r="H88" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>272</v>
+        <v>308</v>
       </c>
       <c r="I88" s="10">
         <f t="shared" ca="1" si="6"/>
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="J88" s="10"/>
       <c r="M88">
@@ -16417,7 +16431,7 @@
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F89" s="10">
         <v>86</v>
@@ -16427,11 +16441,11 @@
       </c>
       <c r="H89" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>300</v>
+        <v>237</v>
       </c>
       <c r="I89" s="10">
         <f t="shared" ca="1" si="6"/>
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="J89" s="10"/>
       <c r="M89">
@@ -16450,7 +16464,7 @@
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F90" s="10">
         <v>87</v>
@@ -16460,11 +16474,11 @@
       </c>
       <c r="H90" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>183</v>
+        <v>130</v>
       </c>
       <c r="I90" s="10">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J90" s="10"/>
       <c r="M90">
@@ -16483,7 +16497,7 @@
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F91" s="10">
         <v>88</v>
@@ -16493,11 +16507,11 @@
       </c>
       <c r="H91" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>329</v>
+        <v>126</v>
       </c>
       <c r="I91" s="10">
         <f t="shared" ca="1" si="6"/>
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="J91" s="10"/>
       <c r="M91">
@@ -16516,7 +16530,7 @@
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F92" s="10">
         <v>89</v>
@@ -16526,11 +16540,11 @@
       </c>
       <c r="H92" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>363</v>
+        <v>215</v>
       </c>
       <c r="I92" s="10">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="J92" s="10"/>
       <c r="M92">
@@ -16549,7 +16563,7 @@
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F93" s="10">
         <v>90</v>
@@ -16559,11 +16573,11 @@
       </c>
       <c r="H93" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>139</v>
+        <v>322</v>
       </c>
       <c r="I93" s="10">
         <f t="shared" ca="1" si="6"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J93" s="10"/>
       <c r="M93">
@@ -16582,7 +16596,7 @@
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F94" s="10">
         <v>91</v>
@@ -16592,11 +16606,11 @@
       </c>
       <c r="H94" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>143</v>
+        <v>290</v>
       </c>
       <c r="I94" s="10">
         <f t="shared" ca="1" si="6"/>
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="J94" s="10"/>
       <c r="M94">
@@ -16615,7 +16629,7 @@
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F95" s="10">
         <v>92</v>
@@ -16625,11 +16639,11 @@
       </c>
       <c r="H95" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>384</v>
+        <v>179</v>
       </c>
       <c r="I95" s="10">
         <f t="shared" ca="1" si="6"/>
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="J95" s="10"/>
       <c r="M95">
@@ -16648,7 +16662,7 @@
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F96" s="10">
         <v>93</v>
@@ -16658,11 +16672,11 @@
       </c>
       <c r="H96" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>248</v>
+        <v>138</v>
       </c>
       <c r="I96" s="10">
         <f t="shared" ca="1" si="6"/>
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="J96" s="10"/>
       <c r="M96">
@@ -16681,7 +16695,7 @@
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F97" s="10">
         <v>94</v>
@@ -16691,11 +16705,11 @@
       </c>
       <c r="H97" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>260</v>
+        <v>153</v>
       </c>
       <c r="I97" s="10">
         <f t="shared" ca="1" si="6"/>
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="J97" s="10"/>
       <c r="M97">
@@ -16714,7 +16728,7 @@
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F98" s="10">
         <v>95</v>
@@ -16724,11 +16738,11 @@
       </c>
       <c r="H98" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="I98" s="10">
         <f t="shared" ca="1" si="6"/>
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="J98" s="10"/>
       <c r="M98">
@@ -16747,7 +16761,7 @@
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F99" s="10">
         <v>96</v>
@@ -16757,11 +16771,11 @@
       </c>
       <c r="H99" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>272</v>
+        <v>322</v>
       </c>
       <c r="I99" s="10">
         <f t="shared" ca="1" si="6"/>
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J99" s="10"/>
       <c r="M99">
@@ -16780,7 +16794,7 @@
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F100" s="10">
         <v>97</v>
@@ -16790,11 +16804,11 @@
       </c>
       <c r="H100" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>187</v>
+        <v>235</v>
       </c>
       <c r="I100" s="10">
         <f t="shared" ca="1" si="6"/>
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J100" s="10"/>
       <c r="M100">
@@ -16813,7 +16827,7 @@
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F101" s="10">
         <v>98</v>
@@ -16823,11 +16837,11 @@
       </c>
       <c r="H101" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>350</v>
+        <v>162</v>
       </c>
       <c r="I101" s="10">
         <f t="shared" ca="1" si="6"/>
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="J101" s="10"/>
       <c r="M101">
@@ -16846,7 +16860,7 @@
       </c>
       <c r="C102">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F102" s="10">
         <v>99</v>
@@ -16856,11 +16870,11 @@
       </c>
       <c r="H102" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="I102" s="10">
         <f t="shared" ca="1" si="6"/>
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J102" s="10"/>
       <c r="M102">
@@ -16879,7 +16893,7 @@
       </c>
       <c r="C103">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F103" s="10">
         <v>100</v>
@@ -16889,11 +16903,11 @@
       </c>
       <c r="H103" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>282</v>
+        <v>223</v>
       </c>
       <c r="I103" s="10">
         <f t="shared" ca="1" si="6"/>
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="J103" s="10"/>
       <c r="M103">
